--- a/Output.xlsx
+++ b/Output.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="output" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="output1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="output2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Aktiviteler" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Rezervasyonlar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Müşteriler" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -36,7 +36,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -55,6 +55,12 @@
         <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -68,10 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -647,12 +655,12 @@
           <t>Telefon</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Tutar</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Para Birimi</t>
         </is>
@@ -689,12 +697,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -731,12 +739,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>125.0</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -773,12 +781,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -815,12 +823,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -857,12 +865,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -899,12 +907,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -941,12 +949,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -983,12 +991,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1025,12 +1033,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1067,12 +1075,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1109,12 +1117,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1151,12 +1159,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1193,12 +1201,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1235,12 +1243,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1277,12 +1285,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1319,12 +1327,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1361,12 +1369,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1403,12 +1411,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1445,12 +1453,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1487,12 +1495,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1529,12 +1537,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1571,12 +1579,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>875.5</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>875.5</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1613,12 +1621,12 @@
           <t>343</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>1359.0</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
@@ -1655,12 +1663,12 @@
           <t>5522</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>17000.0</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>KART</t>
         </is>
@@ -1697,12 +1705,12 @@
           <t>05522612829</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>1358.0</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="H26" s="4" t="inlineStr">
         <is>
           <t>DOLAR</t>
         </is>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -36,7 +36,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -55,6 +55,12 @@
         <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -68,10 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +456,8 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,6 +476,16 @@
           <t>DOLAR</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EURO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>KART</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -483,6 +503,16 @@
           <t>150.0</t>
         </is>
       </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>1700.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -500,6 +530,16 @@
           <t>150.0</t>
         </is>
       </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>1250.0</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>17000.0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -513,6 +553,16 @@
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -529,7 +579,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Aktivite</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Otel Adı</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Müşteri Adı-Soyadı</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rezervasyon Tarihi</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Telefon</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Tutar</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Para Birimi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>deneme</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>1453 otel</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>1357.0</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>deneme</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>1453 otel</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>1357.0</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>yurt2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>123155</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>324234234</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>EURO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,239 +795,158 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Otel Adı</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Aktivite</t>
+          <t>Telefon</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Otel Adı</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Müşteri Adı-Soyadı</t>
+          <t>DOLAR</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Rezervasyon Tarihi</t>
+          <t>EURO</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Telefon</t>
+          <t>KART</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>yurt2</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>deneme</t>
+          <t>05522612829</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>1453 otel</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>wer</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>234234</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>--</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>deneme</t>
+          <t>05522612829</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>1453 otel</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>wer</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>234234</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>asdasdasd</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>00000000000</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>yurt2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>123155</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>324234234</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>yurt2</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>05522612829</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>05522612829</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>asdasdasd</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>1453 otel</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>00000000000</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>1453 otel</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>00000000000</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>2714.0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -58,7 +58,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <bgColor rgb="00CC0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -74,11 +74,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -628,12 +627,12 @@
           <t>Telefon</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Tutar</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Para Birimi</t>
         </is>
@@ -670,12 +669,12 @@
           <t>234234</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>1357.0</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
@@ -712,12 +711,12 @@
           <t>234234</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>1357.0</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
@@ -754,12 +753,12 @@
           <t>324234234</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,79 +489,52 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>ada</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>1578.0</t>
+          <t>123.44</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>1700.0</t>
+          <t>1522.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>çiko</t>
+          <t>Paraşüt</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>1250.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>17000.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -578,7 +551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +567,7 @@
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -637,130 +611,150 @@
           <t>Para Birimi</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ekstralar (TL)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>deneme</t>
+          <t>ada</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>1453 otel</t>
+          <t>osb</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>wer</t>
+          <t>133</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>234234</t>
+          <t>556</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>1357.0</t>
+          <t>123.44</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
           <t>TL</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>46128.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>deneme</t>
+          <t>ada</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>1453 otel</t>
+          <t>osb</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>wer</t>
+          <t>ankaralı</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-04-21</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>234234</t>
+          <t>5522612829</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>1357.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>DOLAR</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>ada</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>yurt2</t>
+          <t>osb</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>123155</t>
+          <t>nil Çetinkaya</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>324234234</t>
+          <t>7777777777777</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
           <t>EURO</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -775,7 +769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,6 +783,7 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -822,48 +817,58 @@
           <t>KART</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ekstralar(TL)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>yurt2</t>
+          <t>osb</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>05522612829</t>
+          <t>5556266262</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>123.44</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>46275.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>pahalı otell</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>05522612829</t>
+          <t>789632145</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -886,70 +891,7 @@
           <t>0</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>asdasdasd</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>00000000000</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>1453 otel</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>00000000000</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2714.0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="G3" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
